--- a/桃太郎最強伝説/桃太郎最強伝説/Book1.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\E Prpject\桃太郎最強伝説\桃太郎最強伝説\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1\Desktop\T\桃太郎最強伝説\桃太郎最強伝説\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,205 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -460,7 +658,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="AN28" sqref="AN28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3772,55 +3970,55 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="1">
         <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="1">
         <v>1</v>
@@ -3990,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="1">
         <v>1</v>
@@ -4160,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="1">
         <v>1</v>
@@ -4330,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="1">
         <v>1</v>
@@ -4425,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
         <v>1</v>
@@ -4500,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="1">
         <v>1</v>
@@ -4595,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
         <v>1</v>
@@ -4670,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="1">
         <v>1</v>
@@ -4765,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -4840,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="1">
         <v>1</v>
@@ -4935,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
         <v>1</v>
@@ -5010,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="AO27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="1">
         <v>1</v>
@@ -5105,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1">
         <v>1</v>
@@ -5180,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="1">
         <v>1</v>
@@ -9991,54 +10189,54 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BD56">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ18">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM12">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AY47">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:AY46">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:AY45">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:AX46">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:AZ45">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>

--- a/桃太郎最強伝説/桃太郎最強伝説/Book1.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book1.xlsx
@@ -90,205 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -658,7 +460,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="AN28" sqref="AN28"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2300,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ10" s="1">
         <v>0</v>
@@ -10189,54 +9991,54 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BD56">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ18">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM12">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AY47">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:AY46">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:AY45">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:AX46">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:AZ45">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
